--- a/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_0_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/0/Output_0_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3089710.073742709</v>
+        <v>3089710.073742708</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28482.34776842931</v>
+        <v>6048030.71806287</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28482.34776842931</v>
+        <v>6048030.71806287</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80511.42876244329</v>
+        <v>5384348.300671213</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80511.42876244329</v>
+        <v>5384348.300671213</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570334924.377736</v>
+        <v>57309100.00556652</v>
       </c>
     </row>
   </sheetData>
@@ -743,28 +743,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C3" t="n">
-        <v>174.7496376603748</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>113.9511906490385</v>
       </c>
       <c r="E3" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>323.6423660637066</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>144.9211972121032</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X3" t="n">
-        <v>19.86273944538755</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="4">
@@ -980,25 +980,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>243.9218081700502</v>
+        <v>129.9450669232088</v>
       </c>
       <c r="E6" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>323.6423660637066</v>
       </c>
       <c r="H6" t="n">
-        <v>311.9138419034023</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X6" t="n">
-        <v>19.86273944538755</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y6" t="n">
         <v>399.3913927661343</v>
@@ -1217,19 +1217,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>204.8554169924477</v>
       </c>
       <c r="C9" t="n">
         <v>361.0999124455193</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>323.6423660637066</v>
@@ -1286,7 +1286,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y9" t="n">
-        <v>213.1568615522736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>134.8572266775047</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>259.3070772103549</v>
       </c>
       <c r="G12" t="n">
         <v>323.6423660637066</v>
@@ -1475,7 +1475,7 @@
         <v>311.9138419034023</v>
       </c>
       <c r="I12" t="n">
-        <v>144.9211972121032</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1520,10 +1520,10 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y12" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1560,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>84.25028199786442</v>
       </c>
       <c r="L13" t="n">
-        <v>87.26375172953334</v>
+        <v>3.01346973166892</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1691,19 +1691,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>384.5565566463266</v>
+        <v>279.778423889608</v>
       </c>
       <c r="C15" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F15" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>323.6423660637066</v>
@@ -1712,7 +1712,7 @@
         <v>311.9138419034023</v>
       </c>
       <c r="I15" t="n">
-        <v>144.9211972121032</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1751,16 +1751,16 @@
         <v>400.0723880620735</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W15" t="n">
         <v>432.3731429098285</v>
       </c>
       <c r="X15" t="n">
-        <v>206.1386724273489</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="16">
@@ -1800,10 +1800,10 @@
         <v>84.25028199786442</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3.01346973166892</v>
       </c>
       <c r="M16" t="n">
-        <v>3.01346973166892</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>72.50142057383765</v>
       </c>
       <c r="E18" t="n">
-        <v>147.3758454274807</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>323.6423660637066</v>
@@ -1988,7 +1988,7 @@
         <v>400.0723880620735</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W18" t="n">
         <v>432.3731429098285</v>
@@ -2165,19 +2165,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>173.1487069981198</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C21" t="n">
         <v>361.0999124455193</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E21" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>197.8372278675233</v>
       </c>
       <c r="G21" t="n">
         <v>323.6423660637066</v>
@@ -2225,7 +2225,7 @@
         <v>400.0723880620735</v>
       </c>
       <c r="V21" t="n">
-        <v>414.5106671915202</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>432.3731429098285</v>
@@ -2271,13 +2271,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>84.25028199786442</v>
       </c>
       <c r="L22" t="n">
-        <v>87.26375172953334</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3.01346973166892</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2402,28 +2402,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>33.37126362003401</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D24" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>323.6423660637066</v>
       </c>
       <c r="H24" t="n">
-        <v>311.9138419034023</v>
+        <v>210.1210066682377</v>
       </c>
       <c r="I24" t="n">
-        <v>144.9211972121032</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y24" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2645,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>57.66658445402997</v>
       </c>
       <c r="G27" t="n">
         <v>323.6423660637066</v>
@@ -2660,7 +2660,7 @@
         <v>311.9138419034023</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>144.9211972121032</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X27" t="n">
-        <v>274.5128342138183</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y27" t="n">
         <v>399.3913927661343</v>
@@ -2748,10 +2748,10 @@
         <v>84.25028199786442</v>
       </c>
       <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
         <v>3.01346973166892</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>345.0653067263415</v>
+        <v>343.3669956310335</v>
       </c>
       <c r="S30" t="n">
-        <v>353.911679435341</v>
+        <v>355.609990530649</v>
       </c>
       <c r="T30" t="n">
         <v>324.904699179778</v>
@@ -3134,7 +3134,7 @@
         <v>239.9138419034023</v>
       </c>
       <c r="I33" t="n">
-        <v>71.22288611679517</v>
+        <v>72.92119721210324</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>345.0653067263415</v>
+        <v>343.3669956310335</v>
       </c>
       <c r="S33" t="n">
         <v>355.609990530649</v>
@@ -3222,10 +3222,10 @@
         <v>12.25028199786442</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90.15172651843488</v>
       </c>
       <c r="M34" t="n">
-        <v>145.5806697316689</v>
+        <v>55.42894321323404</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>270.6720972219126</v>
       </c>
       <c r="F36" t="n">
-        <v>265.937931242569</v>
+        <v>267.6362423378769</v>
       </c>
       <c r="G36" t="n">
         <v>251.6423660637066</v>
@@ -3371,7 +3371,7 @@
         <v>239.9138419034023</v>
       </c>
       <c r="I36" t="n">
-        <v>72.92119721210322</v>
+        <v>72.92119721210324</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>345.0653067263415</v>
       </c>
       <c r="S36" t="n">
-        <v>355.609990530649</v>
+        <v>353.911679435341</v>
       </c>
       <c r="T36" t="n">
         <v>324.904699179778</v>
@@ -3599,7 +3599,7 @@
         <v>270.6720972219126</v>
       </c>
       <c r="F39" t="n">
-        <v>265.937931242569</v>
+        <v>267.6362423378769</v>
       </c>
       <c r="G39" t="n">
         <v>251.6423660637066</v>
@@ -3650,7 +3650,7 @@
         <v>342.5106671915202</v>
       </c>
       <c r="W39" t="n">
-        <v>360.3731429098285</v>
+        <v>358.6748318145205</v>
       </c>
       <c r="X39" t="n">
         <v>347.8627394453875</v>
@@ -3696,10 +3696,10 @@
         <v>12.25028199786442</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.15172651843488</v>
       </c>
       <c r="M40" t="n">
-        <v>145.5806697316689</v>
+        <v>55.42894321323404</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3930,13 +3930,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.25028199786442</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>90.15172651843488</v>
       </c>
       <c r="M43" t="n">
-        <v>55.42894321323404</v>
+        <v>67.67922521109844</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -4067,16 +4067,16 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>20.20903807221735</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>323.6423660637066</v>
       </c>
       <c r="H45" t="n">
         <v>311.9138419034023</v>
@@ -4127,10 +4127,10 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X45" t="n">
-        <v>419.8627394453875</v>
+        <v>167.88311732233</v>
       </c>
       <c r="Y45" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4342,13 +4342,13 @@
         <v>142.64</v>
       </c>
       <c r="L2" t="n">
-        <v>749.8426671538964</v>
+        <v>749.8426671538737</v>
       </c>
       <c r="M2" t="n">
-        <v>1942.056135330067</v>
+        <v>1942.056135330052</v>
       </c>
       <c r="N2" t="n">
-        <v>3247.666286763122</v>
+        <v>3247.666286763114</v>
       </c>
       <c r="O2" t="n">
         <v>4854.512914955933</v>
@@ -4391,25 +4391,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1796.716143837754</v>
+        <v>600.8091242292076</v>
       </c>
       <c r="C3" t="n">
-        <v>1620.201358322224</v>
+        <v>600.8091242292076</v>
       </c>
       <c r="D3" t="n">
-        <v>1620.201358322224</v>
+        <v>485.706911452401</v>
       </c>
       <c r="E3" t="n">
-        <v>1274.067926784938</v>
+        <v>485.706911452401</v>
       </c>
       <c r="F3" t="n">
-        <v>931.0010153325375</v>
+        <v>142.64</v>
       </c>
       <c r="G3" t="n">
-        <v>604.0895344601065</v>
+        <v>142.64</v>
       </c>
       <c r="H3" t="n">
-        <v>289.0250476889931</v>
+        <v>142.64</v>
       </c>
       <c r="I3" t="n">
         <v>142.64</v>
@@ -4457,10 +4457,10 @@
         <v>1816.779517014913</v>
       </c>
       <c r="X3" t="n">
-        <v>1796.716143837754</v>
+        <v>1392.67573979735</v>
       </c>
       <c r="Y3" t="n">
-        <v>1796.716143837754</v>
+        <v>989.2500905386283</v>
       </c>
     </row>
     <row r="4">
@@ -4579,13 +4579,13 @@
         <v>142.64</v>
       </c>
       <c r="L5" t="n">
-        <v>749.8426671538964</v>
+        <v>749.8426671538737</v>
       </c>
       <c r="M5" t="n">
-        <v>1942.056135330067</v>
+        <v>1942.056135330052</v>
       </c>
       <c r="N5" t="n">
-        <v>3247.666286763122</v>
+        <v>3247.666286763114</v>
       </c>
       <c r="O5" t="n">
         <v>4854.512914955933</v>
@@ -4628,22 +4628,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1393.290494579032</v>
+        <v>600.8091242292076</v>
       </c>
       <c r="C6" t="n">
-        <v>1393.290494579032</v>
+        <v>600.8091242292076</v>
       </c>
       <c r="D6" t="n">
-        <v>1146.9048297608</v>
+        <v>469.5514808724309</v>
       </c>
       <c r="E6" t="n">
-        <v>800.7713982235143</v>
+        <v>469.5514808724309</v>
       </c>
       <c r="F6" t="n">
-        <v>457.7044867711135</v>
+        <v>469.5514808724309</v>
       </c>
       <c r="G6" t="n">
-        <v>457.7044867711135</v>
+        <v>142.64</v>
       </c>
       <c r="H6" t="n">
         <v>142.64</v>
@@ -4694,10 +4694,10 @@
         <v>1816.779517014913</v>
       </c>
       <c r="X6" t="n">
-        <v>1796.716143837754</v>
+        <v>1392.67573979735</v>
       </c>
       <c r="Y6" t="n">
-        <v>1393.290494579032</v>
+        <v>989.2500905386283</v>
       </c>
     </row>
     <row r="7">
@@ -4810,19 +4810,19 @@
         <v>142.64</v>
       </c>
       <c r="J8" t="n">
-        <v>142.64</v>
+        <v>533.9491130376557</v>
       </c>
       <c r="K8" t="n">
-        <v>142.64</v>
+        <v>533.9491130376557</v>
       </c>
       <c r="L8" t="n">
-        <v>749.8426671538964</v>
+        <v>749.8426671538737</v>
       </c>
       <c r="M8" t="n">
-        <v>1942.056135330067</v>
+        <v>1942.056135330052</v>
       </c>
       <c r="N8" t="n">
-        <v>3247.666286763122</v>
+        <v>3247.666286763114</v>
       </c>
       <c r="O8" t="n">
         <v>4854.512914955933</v>
@@ -4865,16 +4865,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1177.365778633437</v>
+        <v>1185.751076168615</v>
       </c>
       <c r="C9" t="n">
-        <v>812.6183923248318</v>
+        <v>821.0036898600094</v>
       </c>
       <c r="D9" t="n">
-        <v>812.6183923248318</v>
+        <v>469.5514808724309</v>
       </c>
       <c r="E9" t="n">
-        <v>812.6183923248318</v>
+        <v>469.5514808724309</v>
       </c>
       <c r="F9" t="n">
         <v>469.5514808724309</v>
@@ -4934,7 +4934,7 @@
         <v>1392.67573979735</v>
       </c>
       <c r="Y9" t="n">
-        <v>1177.365778633437</v>
+        <v>1392.67573979735</v>
       </c>
     </row>
     <row r="10">
@@ -4968,13 +4968,13 @@
         <v>142.64</v>
       </c>
       <c r="J10" t="n">
-        <v>390.3645505149111</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="K10" t="n">
-        <v>390.3645505149111</v>
+        <v>230.7852037672054</v>
       </c>
       <c r="L10" t="n">
-        <v>390.3645505149111</v>
+        <v>466.2549945139549</v>
       </c>
       <c r="M10" t="n">
         <v>543.7885298165506</v>
@@ -5053,13 +5053,13 @@
         <v>142.64</v>
       </c>
       <c r="L11" t="n">
-        <v>749.8426671538964</v>
+        <v>749.8426671538737</v>
       </c>
       <c r="M11" t="n">
-        <v>1942.056135330067</v>
+        <v>1942.056135330052</v>
       </c>
       <c r="N11" t="n">
-        <v>3247.666286763122</v>
+        <v>3247.666286763114</v>
       </c>
       <c r="O11" t="n">
         <v>4854.512914955933</v>
@@ -5102,25 +5102,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1413.353867756191</v>
+        <v>1392.67573979735</v>
       </c>
       <c r="C12" t="n">
-        <v>1277.134446869823</v>
+        <v>1392.67573979735</v>
       </c>
       <c r="D12" t="n">
-        <v>1277.134446869823</v>
+        <v>1392.67573979735</v>
       </c>
       <c r="E12" t="n">
-        <v>931.0010153325375</v>
+        <v>1046.542308260064</v>
       </c>
       <c r="F12" t="n">
-        <v>931.0010153325375</v>
+        <v>784.6159676435443</v>
       </c>
       <c r="G12" t="n">
-        <v>604.0895344601065</v>
+        <v>457.7044867711135</v>
       </c>
       <c r="H12" t="n">
-        <v>289.0250476889931</v>
+        <v>142.64</v>
       </c>
       <c r="I12" t="n">
         <v>142.64</v>
@@ -5168,10 +5168,10 @@
         <v>1816.779517014913</v>
       </c>
       <c r="X12" t="n">
-        <v>1816.779517014913</v>
+        <v>1392.67573979735</v>
       </c>
       <c r="Y12" t="n">
-        <v>1413.353867756191</v>
+        <v>1392.67573979735</v>
       </c>
     </row>
     <row r="13">
@@ -5208,7 +5208,7 @@
         <v>230.7852037672054</v>
       </c>
       <c r="K13" t="n">
-        <v>230.7852037672054</v>
+        <v>145.6839088198676</v>
       </c>
       <c r="L13" t="n">
         <v>142.64</v>
@@ -5290,13 +5290,13 @@
         <v>142.64</v>
       </c>
       <c r="L14" t="n">
-        <v>1431.207306601133</v>
+        <v>749.8426671538737</v>
       </c>
       <c r="M14" t="n">
-        <v>1942.056135330067</v>
+        <v>1942.056135330052</v>
       </c>
       <c r="N14" t="n">
-        <v>3247.666286763122</v>
+        <v>3247.666286763114</v>
       </c>
       <c r="O14" t="n">
         <v>4854.512914955933</v>
@@ -5339,25 +5339,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1638.815313093544</v>
+        <v>1130.74939918083</v>
       </c>
       <c r="C15" t="n">
-        <v>1274.067926784938</v>
+        <v>1130.74939918083</v>
       </c>
       <c r="D15" t="n">
-        <v>1274.067926784938</v>
+        <v>1130.74939918083</v>
       </c>
       <c r="E15" t="n">
-        <v>1274.067926784938</v>
+        <v>784.6159676435443</v>
       </c>
       <c r="F15" t="n">
-        <v>931.0010153325375</v>
+        <v>784.6159676435443</v>
       </c>
       <c r="G15" t="n">
-        <v>604.0895344601065</v>
+        <v>457.7044867711135</v>
       </c>
       <c r="H15" t="n">
-        <v>289.0250476889931</v>
+        <v>142.64</v>
       </c>
       <c r="I15" t="n">
         <v>142.64</v>
@@ -5399,16 +5399,16 @@
         <v>2672.217709036478</v>
       </c>
       <c r="V15" t="n">
-        <v>2672.217709036478</v>
+        <v>2253.520065408679</v>
       </c>
       <c r="W15" t="n">
-        <v>2235.477160642711</v>
+        <v>1816.779517014913</v>
       </c>
       <c r="X15" t="n">
-        <v>2027.256279402965</v>
+        <v>1816.779517014913</v>
       </c>
       <c r="Y15" t="n">
-        <v>2027.256279402965</v>
+        <v>1413.353867756191</v>
       </c>
     </row>
     <row r="16">
@@ -5448,7 +5448,7 @@
         <v>145.6839088198676</v>
       </c>
       <c r="L16" t="n">
-        <v>145.6839088198676</v>
+        <v>142.64</v>
       </c>
       <c r="M16" t="n">
         <v>142.64</v>
@@ -5524,16 +5524,16 @@
         <v>142.64</v>
       </c>
       <c r="K17" t="n">
-        <v>852.3463663478684</v>
+        <v>422.6701005594251</v>
       </c>
       <c r="L17" t="n">
-        <v>2123.597138259424</v>
+        <v>1942.056135330052</v>
       </c>
       <c r="M17" t="n">
-        <v>2634.445966988359</v>
+        <v>1942.056135330052</v>
       </c>
       <c r="N17" t="n">
-        <v>3247.666286763122</v>
+        <v>3247.666286763114</v>
       </c>
       <c r="O17" t="n">
         <v>4854.512914955933</v>
@@ -5576,16 +5576,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1422.932417115727</v>
+        <v>1004.234773487929</v>
       </c>
       <c r="C18" t="n">
-        <v>1422.932417115727</v>
+        <v>1004.234773487929</v>
       </c>
       <c r="D18" t="n">
-        <v>1422.932417115727</v>
+        <v>931.0010153325375</v>
       </c>
       <c r="E18" t="n">
-        <v>1274.067926784938</v>
+        <v>931.0010153325375</v>
       </c>
       <c r="F18" t="n">
         <v>931.0010153325375</v>
@@ -5636,16 +5636,16 @@
         <v>2672.217709036478</v>
       </c>
       <c r="V18" t="n">
-        <v>2672.217709036478</v>
+        <v>2253.520065408679</v>
       </c>
       <c r="W18" t="n">
-        <v>2235.477160642711</v>
+        <v>1816.779517014913</v>
       </c>
       <c r="X18" t="n">
-        <v>1811.373383425148</v>
+        <v>1392.67573979735</v>
       </c>
       <c r="Y18" t="n">
-        <v>1811.373383425148</v>
+        <v>1392.67573979735</v>
       </c>
     </row>
     <row r="19">
@@ -5758,19 +5758,19 @@
         <v>142.64</v>
       </c>
       <c r="J20" t="n">
-        <v>533.9491130376557</v>
+        <v>863.2933831381582</v>
       </c>
       <c r="K20" t="n">
-        <v>533.9491130376557</v>
+        <v>863.2933831381582</v>
       </c>
       <c r="L20" t="n">
-        <v>1799.511002248725</v>
+        <v>1475.649923339163</v>
       </c>
       <c r="M20" t="n">
-        <v>1942.056135330067</v>
+        <v>1942.056135330052</v>
       </c>
       <c r="N20" t="n">
-        <v>3247.666286763122</v>
+        <v>3247.666286763114</v>
       </c>
       <c r="O20" t="n">
         <v>4854.512914955933</v>
@@ -5813,16 +5813,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1641.881833178428</v>
+        <v>1847.03619433329</v>
       </c>
       <c r="C21" t="n">
-        <v>1277.134446869823</v>
+        <v>1482.288808024685</v>
       </c>
       <c r="D21" t="n">
-        <v>1277.134446869823</v>
+        <v>1130.836599037106</v>
       </c>
       <c r="E21" t="n">
-        <v>931.0010153325375</v>
+        <v>1130.836599037106</v>
       </c>
       <c r="F21" t="n">
         <v>931.0010153325375</v>
@@ -5873,16 +5873,16 @@
         <v>2672.217709036478</v>
       </c>
       <c r="V21" t="n">
-        <v>2253.520065408679</v>
+        <v>2672.217709036478</v>
       </c>
       <c r="W21" t="n">
-        <v>1816.779517014913</v>
+        <v>2235.477160642711</v>
       </c>
       <c r="X21" t="n">
-        <v>1816.779517014913</v>
+        <v>2235.477160642711</v>
       </c>
       <c r="Y21" t="n">
-        <v>1816.779517014913</v>
+        <v>2235.477160642711</v>
       </c>
     </row>
     <row r="22">
@@ -5919,10 +5919,10 @@
         <v>230.7852037672054</v>
       </c>
       <c r="K22" t="n">
-        <v>230.7852037672054</v>
+        <v>145.6839088198676</v>
       </c>
       <c r="L22" t="n">
-        <v>142.64</v>
+        <v>145.6839088198676</v>
       </c>
       <c r="M22" t="n">
         <v>142.64</v>
@@ -5995,19 +5995,19 @@
         <v>142.64</v>
       </c>
       <c r="J23" t="n">
-        <v>863.2933831381582</v>
+        <v>437.2916939178631</v>
       </c>
       <c r="K23" t="n">
-        <v>863.2933831381582</v>
+        <v>1640.599747451661</v>
       </c>
       <c r="L23" t="n">
-        <v>1942.056135330067</v>
+        <v>3159.985782222288</v>
       </c>
       <c r="M23" t="n">
-        <v>1942.056135330067</v>
+        <v>3302.530915303638</v>
       </c>
       <c r="N23" t="n">
-        <v>3247.666286763122</v>
+        <v>3302.530915303638</v>
       </c>
       <c r="O23" t="n">
         <v>4854.512914955933</v>
@@ -6050,25 +6050,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>955.5417434476849</v>
+        <v>1392.67573979735</v>
       </c>
       <c r="C24" t="n">
-        <v>955.5417434476849</v>
+        <v>1027.928353488745</v>
       </c>
       <c r="D24" t="n">
-        <v>604.0895344601065</v>
+        <v>1027.928353488745</v>
       </c>
       <c r="E24" t="n">
-        <v>604.0895344601065</v>
+        <v>681.7949219514589</v>
       </c>
       <c r="F24" t="n">
-        <v>604.0895344601065</v>
+        <v>681.7949219514589</v>
       </c>
       <c r="G24" t="n">
-        <v>604.0895344601065</v>
+        <v>354.883441079028</v>
       </c>
       <c r="H24" t="n">
-        <v>289.0250476889931</v>
+        <v>142.64</v>
       </c>
       <c r="I24" t="n">
         <v>142.64</v>
@@ -6119,7 +6119,7 @@
         <v>1392.67573979735</v>
       </c>
       <c r="Y24" t="n">
-        <v>989.2500905386283</v>
+        <v>1392.67573979735</v>
       </c>
     </row>
     <row r="25">
@@ -6238,13 +6238,13 @@
         <v>142.64</v>
       </c>
       <c r="L26" t="n">
-        <v>749.8426671538964</v>
+        <v>749.8426671538737</v>
       </c>
       <c r="M26" t="n">
-        <v>1942.056135330067</v>
+        <v>1942.056135330052</v>
       </c>
       <c r="N26" t="n">
-        <v>3247.666286763122</v>
+        <v>3247.666286763114</v>
       </c>
       <c r="O26" t="n">
         <v>4854.512914955933</v>
@@ -6287,25 +6287,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1136.068176631123</v>
+        <v>989.2500905386283</v>
       </c>
       <c r="C27" t="n">
-        <v>1136.068176631123</v>
+        <v>989.2500905386283</v>
       </c>
       <c r="D27" t="n">
-        <v>784.6159676435443</v>
+        <v>989.2500905386283</v>
       </c>
       <c r="E27" t="n">
-        <v>784.6159676435443</v>
+        <v>989.2500905386283</v>
       </c>
       <c r="F27" t="n">
-        <v>784.6159676435443</v>
+        <v>931.0010153325375</v>
       </c>
       <c r="G27" t="n">
-        <v>457.7044867711135</v>
+        <v>604.0895344601065</v>
       </c>
       <c r="H27" t="n">
-        <v>142.64</v>
+        <v>289.0250476889931</v>
       </c>
       <c r="I27" t="n">
         <v>142.64</v>
@@ -6353,10 +6353,10 @@
         <v>1816.779517014913</v>
       </c>
       <c r="X27" t="n">
-        <v>1539.493825889844</v>
+        <v>1392.67573979735</v>
       </c>
       <c r="Y27" t="n">
-        <v>1136.068176631123</v>
+        <v>989.2500905386283</v>
       </c>
     </row>
     <row r="28">
@@ -6396,7 +6396,7 @@
         <v>145.6839088198676</v>
       </c>
       <c r="L28" t="n">
-        <v>142.64</v>
+        <v>145.6839088198676</v>
       </c>
       <c r="M28" t="n">
         <v>142.64</v>
@@ -6475,13 +6475,13 @@
         <v>142.64</v>
       </c>
       <c r="L29" t="n">
-        <v>1662.026034770627</v>
+        <v>749.8426671538737</v>
       </c>
       <c r="M29" t="n">
-        <v>1942.056135330067</v>
+        <v>1942.056135330052</v>
       </c>
       <c r="N29" t="n">
-        <v>3247.666286763122</v>
+        <v>3247.666286763114</v>
       </c>
       <c r="O29" t="n">
         <v>4854.512914955933</v>
@@ -6572,7 +6572,7 @@
         <v>4900.69244085349</v>
       </c>
       <c r="R30" t="n">
-        <v>4552.141625978397</v>
+        <v>4553.857091731234</v>
       </c>
       <c r="S30" t="n">
         <v>4194.655081094214</v>
@@ -6706,19 +6706,19 @@
         <v>142.64</v>
       </c>
       <c r="J32" t="n">
-        <v>142.64</v>
+        <v>749.8426671538737</v>
       </c>
       <c r="K32" t="n">
-        <v>142.64</v>
+        <v>749.8426671538737</v>
       </c>
       <c r="L32" t="n">
-        <v>1662.026034770627</v>
+        <v>749.8426671538737</v>
       </c>
       <c r="M32" t="n">
-        <v>1942.056135330067</v>
+        <v>1942.056135330052</v>
       </c>
       <c r="N32" t="n">
-        <v>3247.666286763122</v>
+        <v>3247.666286763114</v>
       </c>
       <c r="O32" t="n">
         <v>4854.512914955933</v>
@@ -6761,25 +6761,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1825.594578774662</v>
+        <v>1827.310044527499</v>
       </c>
       <c r="C33" t="n">
-        <v>1533.57446519333</v>
+        <v>1535.289930946166</v>
       </c>
       <c r="D33" t="n">
-        <v>1254.849528933024</v>
+        <v>1256.56499468586</v>
       </c>
       <c r="E33" t="n">
-        <v>981.4433701230112</v>
+        <v>983.1588358758474</v>
       </c>
       <c r="F33" t="n">
-        <v>711.1037313978829</v>
+        <v>712.8191971507193</v>
       </c>
       <c r="G33" t="n">
-        <v>456.9195232527247</v>
+        <v>458.6349890055611</v>
       </c>
       <c r="H33" t="n">
-        <v>214.582309208884</v>
+        <v>216.2977749617204</v>
       </c>
       <c r="I33" t="n">
         <v>142.64</v>
@@ -6809,28 +6809,28 @@
         <v>4900.69244085349</v>
       </c>
       <c r="R33" t="n">
-        <v>4552.141625978397</v>
+        <v>4553.857091731234</v>
       </c>
       <c r="S33" t="n">
-        <v>4192.939615341378</v>
+        <v>4194.655081094214</v>
       </c>
       <c r="T33" t="n">
-        <v>3864.75305051332</v>
+        <v>3866.468516266156</v>
       </c>
       <c r="U33" t="n">
-        <v>3533.366799945568</v>
+        <v>3535.082265698405</v>
       </c>
       <c r="V33" t="n">
-        <v>3187.396429045043</v>
+        <v>3189.111894797879</v>
       </c>
       <c r="W33" t="n">
-        <v>2823.38315337855</v>
+        <v>2825.098619131386</v>
       </c>
       <c r="X33" t="n">
-        <v>2472.006648888259</v>
+        <v>2473.722114641096</v>
       </c>
       <c r="Y33" t="n">
-        <v>2141.30827235681</v>
+        <v>2143.023738109647</v>
       </c>
     </row>
     <row r="34">
@@ -6870,7 +6870,7 @@
         <v>289.6911815471403</v>
       </c>
       <c r="L34" t="n">
-        <v>289.6911815471403</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="M34" t="n">
         <v>142.64</v>
@@ -6949,13 +6949,13 @@
         <v>142.64</v>
       </c>
       <c r="L35" t="n">
-        <v>749.8426671538964</v>
+        <v>749.8426671538737</v>
       </c>
       <c r="M35" t="n">
-        <v>1942.056135330067</v>
+        <v>1942.056135330052</v>
       </c>
       <c r="N35" t="n">
-        <v>3247.666286763122</v>
+        <v>3247.666286763114</v>
       </c>
       <c r="O35" t="n">
         <v>4854.512914955933</v>
@@ -6998,19 +6998,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1825.594578774662</v>
+        <v>1827.310044527499</v>
       </c>
       <c r="C36" t="n">
-        <v>1533.57446519333</v>
+        <v>1535.289930946166</v>
       </c>
       <c r="D36" t="n">
-        <v>1254.849528933024</v>
+        <v>1256.56499468586</v>
       </c>
       <c r="E36" t="n">
-        <v>981.4433701230112</v>
+        <v>983.1588358758474</v>
       </c>
       <c r="F36" t="n">
-        <v>712.8191971507192</v>
+        <v>712.8191971507193</v>
       </c>
       <c r="G36" t="n">
         <v>458.6349890055611</v>
@@ -7049,25 +7049,25 @@
         <v>4552.141625978397</v>
       </c>
       <c r="S36" t="n">
-        <v>4192.939615341378</v>
+        <v>4194.655081094214</v>
       </c>
       <c r="T36" t="n">
-        <v>3864.75305051332</v>
+        <v>3866.468516266156</v>
       </c>
       <c r="U36" t="n">
-        <v>3533.366799945568</v>
+        <v>3535.082265698405</v>
       </c>
       <c r="V36" t="n">
-        <v>3187.396429045043</v>
+        <v>3189.111894797879</v>
       </c>
       <c r="W36" t="n">
-        <v>2823.38315337855</v>
+        <v>2825.098619131386</v>
       </c>
       <c r="X36" t="n">
-        <v>2472.006648888259</v>
+        <v>2473.722114641096</v>
       </c>
       <c r="Y36" t="n">
-        <v>2141.30827235681</v>
+        <v>2143.023738109647</v>
       </c>
     </row>
     <row r="37">
@@ -7183,16 +7183,16 @@
         <v>142.64</v>
       </c>
       <c r="K38" t="n">
-        <v>422.6701005594404</v>
+        <v>142.64</v>
       </c>
       <c r="L38" t="n">
-        <v>1942.056135330067</v>
+        <v>1662.026034770627</v>
       </c>
       <c r="M38" t="n">
-        <v>1942.056135330067</v>
+        <v>1942.056135330052</v>
       </c>
       <c r="N38" t="n">
-        <v>3247.666286763122</v>
+        <v>3247.666286763114</v>
       </c>
       <c r="O38" t="n">
         <v>4854.512914955933</v>
@@ -7235,16 +7235,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1825.594578774662</v>
+        <v>1827.310044527499</v>
       </c>
       <c r="C39" t="n">
-        <v>1533.57446519333</v>
+        <v>1535.289930946166</v>
       </c>
       <c r="D39" t="n">
-        <v>1254.849528933024</v>
+        <v>1256.56499468586</v>
       </c>
       <c r="E39" t="n">
-        <v>981.4433701230112</v>
+        <v>983.1588358758474</v>
       </c>
       <c r="F39" t="n">
         <v>712.8191971507192</v>
@@ -7298,13 +7298,13 @@
         <v>3187.396429045043</v>
       </c>
       <c r="W39" t="n">
-        <v>2823.38315337855</v>
+        <v>2825.098619131386</v>
       </c>
       <c r="X39" t="n">
-        <v>2472.006648888259</v>
+        <v>2473.722114641096</v>
       </c>
       <c r="Y39" t="n">
-        <v>2141.30827235681</v>
+        <v>2143.023738109647</v>
       </c>
     </row>
     <row r="40">
@@ -7344,7 +7344,7 @@
         <v>289.6911815471403</v>
       </c>
       <c r="L40" t="n">
-        <v>289.6911815471403</v>
+        <v>198.6288315285192</v>
       </c>
       <c r="M40" t="n">
         <v>142.64</v>
@@ -7417,19 +7417,19 @@
         <v>142.64</v>
       </c>
       <c r="J41" t="n">
-        <v>142.64</v>
+        <v>533.9491130376557</v>
       </c>
       <c r="K41" t="n">
-        <v>142.64</v>
+        <v>533.9491130376557</v>
       </c>
       <c r="L41" t="n">
-        <v>749.8426671538964</v>
+        <v>1799.511002248703</v>
       </c>
       <c r="M41" t="n">
-        <v>1942.056135330067</v>
+        <v>1942.056135330052</v>
       </c>
       <c r="N41" t="n">
-        <v>3247.666286763122</v>
+        <v>3247.666286763114</v>
       </c>
       <c r="O41" t="n">
         <v>4854.512914955933</v>
@@ -7578,10 +7578,10 @@
         <v>302.0652037672054</v>
       </c>
       <c r="K43" t="n">
-        <v>289.6911815471403</v>
+        <v>302.0652037672054</v>
       </c>
       <c r="L43" t="n">
-        <v>198.6288315285192</v>
+        <v>211.0028537485843</v>
       </c>
       <c r="M43" t="n">
         <v>142.64</v>
@@ -7660,13 +7660,13 @@
         <v>142.64</v>
       </c>
       <c r="L44" t="n">
-        <v>749.8426671538964</v>
+        <v>749.8426671538737</v>
       </c>
       <c r="M44" t="n">
-        <v>1942.056135330067</v>
+        <v>1942.056135330052</v>
       </c>
       <c r="N44" t="n">
-        <v>3247.666286763122</v>
+        <v>3247.666286763114</v>
       </c>
       <c r="O44" t="n">
         <v>4854.512914955933</v>
@@ -7709,19 +7709,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>989.2500905386283</v>
+        <v>1647.200610628721</v>
       </c>
       <c r="C45" t="n">
-        <v>624.502704230023</v>
+        <v>1282.453224320116</v>
       </c>
       <c r="D45" t="n">
-        <v>624.502704230023</v>
+        <v>931.0010153325375</v>
       </c>
       <c r="E45" t="n">
-        <v>624.502704230023</v>
+        <v>931.0010153325375</v>
       </c>
       <c r="F45" t="n">
-        <v>604.0895344601065</v>
+        <v>931.0010153325375</v>
       </c>
       <c r="G45" t="n">
         <v>604.0895344601065</v>
@@ -7775,10 +7775,10 @@
         <v>1816.779517014913</v>
       </c>
       <c r="X45" t="n">
-        <v>1392.67573979735</v>
+        <v>1647.200610628721</v>
       </c>
       <c r="Y45" t="n">
-        <v>989.2500905386283</v>
+        <v>1647.200610628721</v>
       </c>
     </row>
     <row r="46">
@@ -7981,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>120.6470157237802</v>
+        <v>119.6178738989271</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>120.6470157237802</v>
+        <v>119.6178738989271</v>
       </c>
       <c r="J8" t="n">
-        <v>35.04300624509033</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>120.6470157237802</v>
+        <v>119.6178738989271</v>
       </c>
       <c r="J11" t="n">
         <v>35.04300624509033</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>120.6470157237802</v>
+        <v>119.6178738989271</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>683.0411781819472</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>1060.271045550332</v>
@@ -9166,19 +9166,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>120.6470157237802</v>
+        <v>119.6178738989271</v>
       </c>
       <c r="J17" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>665.5497290005562</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M17" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1096.663422488788</v>
@@ -9412,10 +9412,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>659.8033828384494</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1015.3795134917</v>
       </c>
       <c r="N20" t="n">
         <v>1096.663422488788</v>
@@ -9640,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>119.6178738989271</v>
       </c>
       <c r="J23" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
         <v>916.1914086561842</v>
@@ -9655,10 +9655,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1032.917105959907</v>
+        <v>977.4982892523078</v>
       </c>
       <c r="P23" t="n">
         <v>870.5779326741233</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>120.6470157237802</v>
+        <v>119.6178738989271</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -10117,16 +10117,16 @@
         <v>119.6178738989271</v>
       </c>
       <c r="J29" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>916.1914086561842</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>138.8737045233312</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N29" t="n">
         <v>1096.663422488788</v>
@@ -10354,16 +10354,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>35.04300624509033</v>
+        <v>315.7080537737481</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>916.1914086561842</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>138.8737045233312</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N32" t="n">
         <v>1096.663422488788</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>120.6470157237802</v>
+        <v>119.6178738989271</v>
       </c>
       <c r="J35" t="n">
         <v>35.04300624509033</v>
@@ -10828,7 +10828,7 @@
         <v>119.6178738989271</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>916.1914086561842</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>138.8737045233084</v>
       </c>
       <c r="N38" t="n">
         <v>1096.663422488788</v>
@@ -11062,19 +11062,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6470157237802</v>
+        <v>119.6178738989271</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>659.8033828384266</v>
       </c>
       <c r="M41" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>1096.663422488788</v>
@@ -11299,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>120.6470157237802</v>
+        <v>119.6178738989271</v>
       </c>
       <c r="J44" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23345,7 +23345,7 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C12" t="n">
-        <v>226.2426857680146</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D12" t="n">
         <v>347.9376868977026</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>339.6362423378769</v>
+        <v>80.329165127522</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23363,7 +23363,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>144.9211972121032</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23408,10 +23408,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>419.8627394453875</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="13">
@@ -23448,10 +23448,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>84.25028199786442</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>74.88797478890153</v>
+        <v>159.138256786766</v>
       </c>
       <c r="M13" t="n">
         <v>245.0262835336975</v>
@@ -23579,19 +23579,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>104.7781327567187</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D15" t="n">
         <v>347.9376868977026</v>
       </c>
       <c r="E15" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23600,7 +23600,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>144.9211972121032</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23639,16 +23639,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>414.5106671915202</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>213.7240670180386</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y15" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23688,10 +23688,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>162.1517265184349</v>
+        <v>159.138256786766</v>
       </c>
       <c r="M16" t="n">
-        <v>242.0128138020286</v>
+        <v>245.0262835336975</v>
       </c>
       <c r="N16" t="n">
         <v>302.1330260913569</v>
@@ -23822,13 +23822,13 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D18" t="n">
-        <v>347.9376868977026</v>
+        <v>275.436266323865</v>
       </c>
       <c r="E18" t="n">
-        <v>195.2962517944319</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>414.5106671915202</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -24053,19 +24053,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>211.4078496482068</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F21" t="n">
-        <v>339.6362423378769</v>
+        <v>141.7990144703536</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24159,13 +24159,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>84.25028199786442</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>74.88797478890153</v>
+        <v>162.1517265184349</v>
       </c>
       <c r="M22" t="n">
-        <v>245.0262835336975</v>
+        <v>242.0128138020286</v>
       </c>
       <c r="N22" t="n">
         <v>302.1330260913569</v>
@@ -24290,28 +24290,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>351.1852930262926</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C24" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E24" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G24" t="n">
-        <v>323.6423660637066</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>101.7928352351645</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>144.9211972121032</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24359,7 +24359,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="25">
@@ -24533,13 +24533,13 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E27" t="n">
         <v>342.6720972219126</v>
       </c>
       <c r="F27" t="n">
-        <v>339.6362423378769</v>
+        <v>281.9696578838469</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24548,7 +24548,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>144.9211972121032</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24593,7 +24593,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>145.3499052315693</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24636,10 +24636,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>159.138256786766</v>
+        <v>162.1517265184349</v>
       </c>
       <c r="M28" t="n">
-        <v>245.0262835336975</v>
+        <v>242.0128138020286</v>
       </c>
       <c r="N28" t="n">
         <v>302.1330260913569</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.698311095308043</v>
       </c>
       <c r="S30" t="n">
-        <v>1.698311095307986</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -25022,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.698311095308071</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.698311095308043</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25110,10 +25110,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>90.15172651843488</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>27.44561380202859</v>
+        <v>117.5973403204635</v>
       </c>
       <c r="N34" t="n">
         <v>230.1330260913569</v>
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1.698311095307815</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.698311095307986</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>130.5122714242905</v>
       </c>
       <c r="U37" t="n">
-        <v>78.86248963511369</v>
+        <v>78.86248963511368</v>
       </c>
       <c r="V37" t="n">
         <v>127.1703102162162</v>
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1.698311095307815</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.698311095307929</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25584,10 +25584,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.15172651843488</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>27.44561380202859</v>
+        <v>117.5973403204635</v>
       </c>
       <c r="N40" t="n">
         <v>230.1330260913569</v>
@@ -25818,13 +25818,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>12.25028199786442</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>117.5973403204635</v>
+        <v>105.3470583225991</v>
       </c>
       <c r="N43" t="n">
         <v>230.1330260913569</v>
@@ -25955,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>342.6720972219126</v>
       </c>
       <c r="F45" t="n">
-        <v>319.4272042656595</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G45" t="n">
-        <v>323.6423660637066</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -26015,10 +26015,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>251.9796221230576</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="46">
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15227.92240399552</v>
+        <v>1290861.46634091</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30455.84480799104</v>
+        <v>2581722.932681818</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45683.76721198654</v>
+        <v>3872584.39902273</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>64077.63304020518</v>
+        <v>4930699.682917374</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>82471.49886842383</v>
+        <v>5988814.966812018</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>100865.3646966425</v>
+        <v>7046930.250706654</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119259.2305248611</v>
+        <v>8105045.534601288</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137653.0963530797</v>
+        <v>9163160.81849592</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>156046.9621812983</v>
+        <v>10221276.10239055</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173294.835041517</v>
+        <v>11396465.66350119</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>190542.7079017356</v>
+        <v>12571655.22461182</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>207790.5807619542</v>
+        <v>13746844.78572245</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>225038.4536221731</v>
+        <v>14922034.3468331</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>242286.3264823921</v>
+        <v>16097223.90794375</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>260680.1923106109</v>
+        <v>17155339.1918384</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913048.3542411316</v>
+        <v>913048.3542411311</v>
       </c>
       <c r="C2" t="n">
         <v>913048.3542411312</v>
@@ -26328,40 +26328,40 @@
         <v>913048.3542411312</v>
       </c>
       <c r="E2" t="n">
+        <v>748423.0056815769</v>
+      </c>
+      <c r="F2" t="n">
+        <v>748423.0056815771</v>
+      </c>
+      <c r="G2" t="n">
         <v>748423.005681577</v>
-      </c>
-      <c r="F2" t="n">
-        <v>748423.0056815769</v>
-      </c>
-      <c r="G2" t="n">
-        <v>748423.0056815769</v>
       </c>
       <c r="H2" t="n">
         <v>748423.0056815771</v>
       </c>
       <c r="I2" t="n">
-        <v>748423.0056815773</v>
+        <v>748423.005681577</v>
       </c>
       <c r="J2" t="n">
         <v>748423.005681577</v>
       </c>
       <c r="K2" t="n">
-        <v>831231.6407855785</v>
+        <v>831231.6407855784</v>
       </c>
       <c r="L2" t="n">
-        <v>831231.6407855772</v>
+        <v>831231.640785577</v>
       </c>
       <c r="M2" t="n">
-        <v>831231.6407855785</v>
+        <v>831231.6407855771</v>
       </c>
       <c r="N2" t="n">
+        <v>831231.6407855788</v>
+      </c>
+      <c r="O2" t="n">
         <v>831231.6407855784</v>
       </c>
-      <c r="O2" t="n">
-        <v>831231.6407855786</v>
-      </c>
       <c r="P2" t="n">
-        <v>748423.005681577</v>
+        <v>748423.0056815768</v>
       </c>
     </row>
     <row r="3">
@@ -26450,7 +26450,7 @@
         <v>1115.16909319135</v>
       </c>
       <c r="K4" t="n">
-        <v>64506.21516225202</v>
+        <v>64506.21516225203</v>
       </c>
       <c r="L4" t="n">
         <v>64239.24996669581</v>
@@ -26527,49 +26527,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-959822.9162155433</v>
+        <v>-959822.9162155438</v>
       </c>
       <c r="C6" t="n">
-        <v>618940.3170106977</v>
+        <v>618940.3170106978</v>
       </c>
       <c r="D6" t="n">
         <v>619463.258678906</v>
       </c>
       <c r="E6" t="n">
+        <v>617646.4365883856</v>
+      </c>
+      <c r="F6" t="n">
+        <v>617646.4365883858</v>
+      </c>
+      <c r="G6" t="n">
         <v>617646.4365883857</v>
-      </c>
-      <c r="F6" t="n">
-        <v>617646.4365883856</v>
-      </c>
-      <c r="G6" t="n">
-        <v>617646.4365883856</v>
       </c>
       <c r="H6" t="n">
         <v>617646.4365883858</v>
       </c>
       <c r="I6" t="n">
-        <v>617646.436588386</v>
+        <v>617646.4365883857</v>
       </c>
       <c r="J6" t="n">
         <v>-9969.563411614276</v>
       </c>
       <c r="K6" t="n">
-        <v>573411.0576233265</v>
+        <v>573411.0576233263</v>
       </c>
       <c r="L6" t="n">
-        <v>631278.0228188814</v>
+        <v>631278.0228188812</v>
       </c>
       <c r="M6" t="n">
-        <v>631545.3695800484</v>
+        <v>631545.369580047</v>
       </c>
       <c r="N6" t="n">
-        <v>631813.1007414006</v>
+        <v>631813.1007414008</v>
       </c>
       <c r="O6" t="n">
-        <v>632081.2191757859</v>
+        <v>632081.2191757857</v>
       </c>
       <c r="P6" t="n">
-        <v>617646.4365883857</v>
+        <v>617646.4365883855</v>
       </c>
     </row>
   </sheetData>
@@ -27037,19 +27037,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27061,7 +27061,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
         <v>72</v>
@@ -27144,22 +27144,22 @@
         <v>1783</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,28 +27587,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>186.3502747851445</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D3" t="n">
-        <v>347.9376868977026</v>
+        <v>233.9864962486641</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>323.6423660637066</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>144.9211972121032</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27653,10 +27653,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27824,25 +27824,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>361.0999124455193</v>
       </c>
       <c r="D6" t="n">
-        <v>104.0158787276524</v>
+        <v>217.9926199744938</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G6" t="n">
-        <v>323.6423660637066</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>311.9138419034023</v>
       </c>
       <c r="I6" t="n">
         <v>144.9211972121032</v>
@@ -27890,7 +27890,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>384.5565566463266</v>
+        <v>179.7011396538789</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>342.6720972219126</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -28130,7 +28130,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>186.2345312138608</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="10">
@@ -28164,16 +28164,16 @@
         <v>123.759685128315</v>
       </c>
       <c r="J10" t="n">
-        <v>161.1912593411169</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>84.25028199786442</v>
       </c>
       <c r="L10" t="n">
-        <v>162.1517265184349</v>
+        <v>400</v>
       </c>
       <c r="M10" t="n">
-        <v>400</v>
+        <v>323.3429858595518</v>
       </c>
       <c r="N10" t="n">
         <v>400</v>
@@ -31177,25 +31177,25 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I2" t="n">
-        <v>150.0811596826846</v>
+        <v>151.1103015075377</v>
       </c>
       <c r="J2" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>613.3360274281782</v>
+        <v>613.3360274281553</v>
       </c>
       <c r="M2" t="n">
-        <v>688.2471105527638</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N2" t="n">
-        <v>699.3836683417086</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O2" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P2" t="n">
         <v>563.6430904522613</v>
@@ -31423,16 +31423,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>613.3360274281782</v>
+        <v>613.3360274281553</v>
       </c>
       <c r="M5" t="n">
-        <v>688.2471105527638</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N5" t="n">
-        <v>699.3836683417086</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O5" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P5" t="n">
         <v>563.6430904522613</v>
@@ -31651,7 +31651,7 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I8" t="n">
-        <v>150.0811596826846</v>
+        <v>151.1103015075377</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -31660,16 +31660,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>613.3360274281782</v>
+        <v>218.0742970870889</v>
       </c>
       <c r="M8" t="n">
-        <v>688.2471105527638</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N8" t="n">
-        <v>699.3836683417086</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O8" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P8" t="n">
         <v>563.6430904522613</v>
@@ -31888,7 +31888,7 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I11" t="n">
-        <v>150.0811596826846</v>
+        <v>151.1103015075377</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -31897,16 +31897,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>613.3360274281782</v>
+        <v>613.3360274281553</v>
       </c>
       <c r="M11" t="n">
-        <v>688.2471105527638</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N11" t="n">
-        <v>699.3836683417086</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O11" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P11" t="n">
         <v>563.6430904522613</v>
@@ -32125,7 +32125,7 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I14" t="n">
-        <v>150.0811596826846</v>
+        <v>151.1103015075377</v>
       </c>
       <c r="J14" t="n">
         <v>35.04300624509033</v>
@@ -32134,16 +32134,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>618.541959798995</v>
+        <v>613.3360274281553</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N14" t="n">
-        <v>699.3836683417086</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O14" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P14" t="n">
         <v>563.6430904522613</v>
@@ -32362,25 +32362,25 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I17" t="n">
-        <v>150.0811596826846</v>
+        <v>151.1103015075377</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>282.8586874337627</v>
       </c>
       <c r="L17" t="n">
         <v>618.541959798995</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>544.2621276423173</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O17" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P17" t="n">
         <v>563.6430904522613</v>
@@ -32602,7 +32602,7 @@
         <v>151.1103015075377</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -32611,13 +32611,13 @@
         <v>618.541959798995</v>
       </c>
       <c r="M20" t="n">
-        <v>688.2471105527638</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>699.3836683417086</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O20" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P20" t="n">
         <v>563.6430904522613</v>
@@ -32836,25 +32836,25 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I23" t="n">
-        <v>150.0811596826846</v>
+        <v>151.1103015075377</v>
       </c>
       <c r="J23" t="n">
         <v>332.6709798994975</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>498.5875628140704</v>
       </c>
       <c r="L23" t="n">
-        <v>173.4679369922092</v>
+        <v>618.541959798995</v>
       </c>
       <c r="M23" t="n">
-        <v>544.2621276423173</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N23" t="n">
-        <v>699.3836683417086</v>
+        <v>477.2489580698352</v>
       </c>
       <c r="O23" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P23" t="n">
         <v>563.6430904522613</v>
@@ -33073,7 +33073,7 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I26" t="n">
-        <v>150.0811596826846</v>
+        <v>151.1103015075377</v>
       </c>
       <c r="J26" t="n">
         <v>35.04300624509033</v>
@@ -33082,16 +33082,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>613.3360274281782</v>
+        <v>613.3360274281553</v>
       </c>
       <c r="M26" t="n">
-        <v>688.2471105527638</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N26" t="n">
-        <v>699.3836683417086</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O26" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P26" t="n">
         <v>563.6430904522613</v>
@@ -33313,22 +33313,22 @@
         <v>151.1103015075377</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>618.541959798995</v>
+        <v>613.3360274281553</v>
       </c>
       <c r="M29" t="n">
-        <v>688.2471105527638</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N29" t="n">
-        <v>699.3836683417086</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O29" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P29" t="n">
         <v>563.6430904522613</v>
@@ -33550,22 +33550,22 @@
         <v>150.0811596826846</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>332.6709798994975</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>618.541959798995</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>688.2471105527638</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N32" t="n">
-        <v>699.3836683417086</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O32" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P32" t="n">
         <v>563.6430904522613</v>
@@ -33784,7 +33784,7 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I35" t="n">
-        <v>150.0811596826846</v>
+        <v>151.1103015075377</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -33793,16 +33793,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>613.3360274281782</v>
+        <v>613.3360274281553</v>
       </c>
       <c r="M35" t="n">
-        <v>688.2471105527638</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N35" t="n">
-        <v>699.3836683417086</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O35" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P35" t="n">
         <v>563.6430904522613</v>
@@ -34024,22 +34024,22 @@
         <v>151.1103015075377</v>
       </c>
       <c r="J38" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>282.8586874337782</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>618.541959798995</v>
       </c>
       <c r="M38" t="n">
-        <v>544.2621276423173</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N38" t="n">
-        <v>699.3836683417086</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O38" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P38" t="n">
         <v>563.6430904522613</v>
@@ -34258,25 +34258,25 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I41" t="n">
-        <v>150.0811596826846</v>
+        <v>151.1103015075377</v>
       </c>
       <c r="J41" t="n">
-        <v>35.04300624509033</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>613.3360274281782</v>
+        <v>618.541959798995</v>
       </c>
       <c r="M41" t="n">
-        <v>688.2471105527638</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N41" t="n">
-        <v>699.3836683417086</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O41" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P41" t="n">
         <v>563.6430904522613</v>
@@ -34495,25 +34495,25 @@
         <v>40.14158291457284</v>
       </c>
       <c r="I44" t="n">
-        <v>150.0811596826846</v>
+        <v>151.1103015075377</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>35.04300624509033</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>613.3360274281782</v>
+        <v>613.3360274281553</v>
       </c>
       <c r="M44" t="n">
-        <v>688.2471105527638</v>
+        <v>688.2471105527712</v>
       </c>
       <c r="N44" t="n">
-        <v>699.3836683417086</v>
+        <v>699.383668341716</v>
       </c>
       <c r="O44" t="n">
-        <v>660.4081658291458</v>
+        <v>660.4081658291532</v>
       </c>
       <c r="P44" t="n">
         <v>563.6430904522613</v>
@@ -34834,16 +34834,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>613.3360274281782</v>
+        <v>613.3360274281553</v>
       </c>
       <c r="M2" t="n">
-        <v>1204.256028460779</v>
+        <v>1204.256028460786</v>
       </c>
       <c r="N2" t="n">
-        <v>1318.798132760661</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O2" t="n">
-        <v>1623.07740221496</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P2" t="n">
         <v>1433.933963085703</v>
@@ -35071,16 +35071,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>613.3360274281782</v>
+        <v>613.3360274281553</v>
       </c>
       <c r="M5" t="n">
-        <v>1204.256028460779</v>
+        <v>1204.256028460786</v>
       </c>
       <c r="N5" t="n">
-        <v>1318.798132760661</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O5" t="n">
-        <v>1623.07740221496</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P5" t="n">
         <v>1433.933963085703</v>
@@ -35302,22 +35302,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>395.2617303410664</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>613.3360274281782</v>
+        <v>218.0742970870889</v>
       </c>
       <c r="M8" t="n">
-        <v>1204.256028460779</v>
+        <v>1204.256028460786</v>
       </c>
       <c r="N8" t="n">
-        <v>1318.798132760661</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O8" t="n">
-        <v>1623.07740221496</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P8" t="n">
         <v>1433.933963085703</v>
@@ -35460,16 +35460,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>250.2268187019304</v>
+        <v>89.03555936081352</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>237.8482734815651</v>
       </c>
       <c r="M10" t="n">
-        <v>154.9737164663025</v>
+        <v>78.31670232585428</v>
       </c>
       <c r="N10" t="n">
         <v>97.8669739086431</v>
@@ -35545,16 +35545,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>613.3360274281782</v>
+        <v>613.3360274281553</v>
       </c>
       <c r="M11" t="n">
-        <v>1204.256028460779</v>
+        <v>1204.256028460786</v>
       </c>
       <c r="N11" t="n">
-        <v>1318.798132760661</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O11" t="n">
-        <v>1623.07740221496</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P11" t="n">
         <v>1433.933963085703</v>
@@ -35782,16 +35782,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1301.583137980942</v>
+        <v>613.3360274281553</v>
       </c>
       <c r="M14" t="n">
-        <v>516.0089179080152</v>
+        <v>1204.256028460786</v>
       </c>
       <c r="N14" t="n">
-        <v>1318.798132760661</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.07740221496</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P14" t="n">
         <v>1433.933963085703</v>
@@ -36016,19 +36016,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>716.8751175230994</v>
+        <v>282.8586874337627</v>
       </c>
       <c r="L17" t="n">
-        <v>1284.091688799551</v>
+        <v>1534.733368455179</v>
       </c>
       <c r="M17" t="n">
-        <v>516.0089179080152</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>619.4144644189528</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O17" t="n">
-        <v>1623.07740221496</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P17" t="n">
         <v>1433.933963085703</v>
@@ -36250,22 +36250,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.2617303410664</v>
+        <v>727.9327102405639</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1278.345342637444</v>
+        <v>618.5419597989949</v>
       </c>
       <c r="M20" t="n">
-        <v>143.9849829104465</v>
+        <v>471.1173858493829</v>
       </c>
       <c r="N20" t="n">
-        <v>1318.798132760661</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O20" t="n">
-        <v>1623.07740221496</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P20" t="n">
         <v>1433.933963085703</v>
@@ -36487,22 +36487,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>727.9327102405639</v>
+        <v>297.6279736544072</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1215.46268033717</v>
       </c>
       <c r="L23" t="n">
-        <v>1089.659345648393</v>
+        <v>1534.733368455179</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.9849829104539</v>
       </c>
       <c r="N23" t="n">
-        <v>1318.798132760661</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1623.07740221496</v>
+        <v>1567.658585507368</v>
       </c>
       <c r="P23" t="n">
         <v>1433.933963085703</v>
@@ -36730,16 +36730,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>613.3360274281782</v>
+        <v>613.3360274281553</v>
       </c>
       <c r="M26" t="n">
-        <v>1204.256028460779</v>
+        <v>1204.256028460786</v>
       </c>
       <c r="N26" t="n">
-        <v>1318.798132760661</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O26" t="n">
-        <v>1623.07740221496</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P26" t="n">
         <v>1433.933963085703</v>
@@ -36967,16 +36967,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1534.733368455179</v>
+        <v>613.3360274281553</v>
       </c>
       <c r="M29" t="n">
-        <v>282.8586874337777</v>
+        <v>1204.256028460786</v>
       </c>
       <c r="N29" t="n">
-        <v>1318.798132760661</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O29" t="n">
-        <v>1623.07740221496</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P29" t="n">
         <v>1433.933963085703</v>
@@ -37198,22 +37198,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>613.3360274281553</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1534.733368455179</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>282.8586874337777</v>
+        <v>1204.256028460786</v>
       </c>
       <c r="N32" t="n">
-        <v>1318.798132760661</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O32" t="n">
-        <v>1623.07740221496</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P32" t="n">
         <v>1433.933963085703</v>
@@ -37441,16 +37441,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>613.3360274281782</v>
+        <v>613.3360274281553</v>
       </c>
       <c r="M35" t="n">
-        <v>1204.256028460779</v>
+        <v>1204.256028460786</v>
       </c>
       <c r="N35" t="n">
-        <v>1318.798132760661</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O35" t="n">
-        <v>1623.07740221496</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P35" t="n">
         <v>1433.933963085703</v>
@@ -37675,19 +37675,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>282.8586874337782</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1534.733368455179</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>282.8586874337623</v>
       </c>
       <c r="N38" t="n">
-        <v>1318.798132760661</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O38" t="n">
-        <v>1623.07740221496</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P38" t="n">
         <v>1433.933963085703</v>
@@ -37909,22 +37909,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>395.2617303410664</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>613.3360274281782</v>
+        <v>1278.345342637421</v>
       </c>
       <c r="M41" t="n">
-        <v>1204.256028460779</v>
+        <v>143.9849829104539</v>
       </c>
       <c r="N41" t="n">
-        <v>1318.798132760661</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O41" t="n">
-        <v>1623.07740221496</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P41" t="n">
         <v>1433.933963085703</v>
@@ -38152,16 +38152,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>613.3360274281782</v>
+        <v>613.3360274281553</v>
       </c>
       <c r="M44" t="n">
-        <v>1204.256028460779</v>
+        <v>1204.256028460786</v>
       </c>
       <c r="N44" t="n">
-        <v>1318.798132760661</v>
+        <v>1318.798132760669</v>
       </c>
       <c r="O44" t="n">
-        <v>1623.07740221496</v>
+        <v>1623.077402214968</v>
       </c>
       <c r="P44" t="n">
         <v>1433.933963085703</v>
